--- a/Code/Rayyan/Feature Engineering/ipynb code/fe_bscfplry.xlsx
+++ b/Code/Rayyan/Feature Engineering/ipynb code/fe_bscfplry.xlsx
@@ -496,29 +496,29 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Contingent Liabilities</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Expenditure In Foreign Currency</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Other Earnings</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Bonus Equity Share Capital</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Non-Current Investments Unquoted Book Value</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Net CashFlow From Operating Activities</t>
@@ -586,67 +586,67 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Return on Assets (%)</t>
+          <t>Net Profit Margin (%)</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>Return on Capital Employed (%)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
           <t>Total Debt/Equity (X)</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Asset Turnover Ratio (%)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Quick Ratio (X)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Dividend Payout Ratio (NP) (%)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Cash Earnings Retention Ratio (%)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Enterprise Value (Cr.)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>EV/Net Operating Revenue (X)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>EV/EBITDA (X)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>MarketCap/Net Operating Revenue (X)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Retention Ratios (%)</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Price/BV (X)</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Price/Net Operating Revenue</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Earnings Yield</t>
         </is>
       </c>
     </row>
@@ -690,19 +690,19 @@
         <v>-1.907211690712159</v>
       </c>
       <c r="M2" t="n">
+        <v>-1.861434547616584</v>
+      </c>
+      <c r="N2" t="n">
         <v>-1.430987528499711</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>0.1091018518693426</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-1.130134896119817</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>-1.347838411613383</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-2.003153382516388</v>
       </c>
       <c r="R2" t="n">
         <v>-0.547979084819147</v>
@@ -744,43 +744,43 @@
         <v>-0.2307783529545809</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3535078988596167</v>
+        <v>0.325632854256985</v>
       </c>
       <c r="AF2" t="n">
+        <v>0.3087994778567165</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0.2784502466145614</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>2.750794927063505</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>0.6859732665105336</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>1.635776818022656</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>-0.1216765196142233</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>-6.283592139901965e-16</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>0.0003167104998376878</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>6.217697233662448e-17</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
+        <v>-0.00147885635633869</v>
+      </c>
+      <c r="AP2" t="n">
         <v>0.5071407241322032</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AQ2" t="n">
         <v>0.0009115628255483324</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-0.00147885635633869</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.0005658466916030253</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>-0.6037900712412382</v>
       </c>
       <c r="M3" t="n">
+        <v>-1.530683524326201</v>
+      </c>
+      <c r="N3" t="n">
         <v>-1.395535848707357</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>1.019650131542537</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>-1.134688270593557</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>-1.347838411613383</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-1.976853989182446</v>
       </c>
       <c r="R3" t="n">
         <v>-0.754504986504411</v>
@@ -877,43 +877,43 @@
         <v>1.154110408404315</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3797216945857713</v>
+        <v>0.382349866078145</v>
       </c>
       <c r="AF3" t="n">
+        <v>0.3241043531589218</v>
+      </c>
+      <c r="AG3" t="n">
         <v>-0.2765528003003224</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>1.735943530822077</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>2.844198235296274</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>1.338509722204218</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>-0.1329194214442098</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>-0.8156488645909203</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>-0.5254227192310156</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>-0.2192033045508907</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
+        <v>0.9597777752637019</v>
+      </c>
+      <c r="AP3" t="n">
         <v>0.6229902455206083</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AQ3" t="n">
         <v>0.6891414961144624</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0.9597777752637019</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.4645601338060833</v>
       </c>
     </row>
     <row r="4">
@@ -956,19 +956,19 @@
         <v>-1.009459365012991</v>
       </c>
       <c r="M4" t="n">
+        <v>-1.222181751240504</v>
+      </c>
+      <c r="N4" t="n">
         <v>-1.196164527872249</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1.55098246593271</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>-1.05083029070218</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>-1.347838411613383</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>-1.073619821202596</v>
       </c>
       <c r="R4" t="n">
         <v>0.1061548001729852</v>
@@ -1010,43 +1010,43 @@
         <v>1.719085551971</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.4005305839766363</v>
+        <v>0.4328309760760362</v>
       </c>
       <c r="AF4" t="n">
+        <v>0.338086584916492</v>
+      </c>
+      <c r="AG4" t="n">
         <v>-0.110526247804417</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>1.301251701740589</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>1.532149575858247</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>0.5735316250844869</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>-0.1121500913460669</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>0.2960732558842196</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>0.5640614002112343</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>-0.1492857634985307</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
+        <v>1.388646118601874</v>
+      </c>
+      <c r="AP4" t="n">
         <v>0.9211138780065307</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AQ4" t="n">
         <v>0.7802977786692853</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>1.388646118601874</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>0.4758770676381439</v>
       </c>
     </row>
     <row r="5">
@@ -1089,19 +1089,19 @@
         <v>-0.1365941959026539</v>
       </c>
       <c r="M5" t="n">
+        <v>-0.3465995292744123</v>
+      </c>
+      <c r="N5" t="n">
         <v>-1.376465989477136</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>2.072370796087963</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>-0.9716521679088139</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.05388615025340421</v>
       </c>
       <c r="R5" t="n">
         <v>0.8233172105419634</v>
@@ -1143,43 +1143,43 @@
         <v>0.7356264978831707</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3718845803996014</v>
+        <v>0.452825454937946</v>
       </c>
       <c r="AF5" t="n">
+        <v>0.3114447649459866</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.273706630828964</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>0.63808995461824</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>2.064575118818606</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>0.9273440923901279</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>-0.1313745952385627</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>1.200459808872417</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>0.5450587702209623</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>-0.2183282414588711</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
+        <v>0.4643608958902963</v>
+      </c>
+      <c r="AP5" t="n">
         <v>0.7832277628757663</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AQ5" t="n">
         <v>0.1285303584023007</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0.4643608958902963</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>0.5098278691343253</v>
       </c>
     </row>
     <row r="6">
@@ -1222,19 +1222,19 @@
         <v>0.3511681491169778</v>
       </c>
       <c r="M6" t="n">
+        <v>0.2023958177820308</v>
+      </c>
+      <c r="N6" t="n">
         <v>-1.012059237963463</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>1.248093472074478</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.7392782905989541</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.5159383329279661</v>
       </c>
       <c r="R6" t="n">
         <v>2.09143167285372</v>
@@ -1276,43 +1276,43 @@
         <v>1.072774977519327</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.4348517392057253</v>
+        <v>0.5879366611087723</v>
       </c>
       <c r="AF6" t="n">
+        <v>0.3756874513996877</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.287937478185756</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>0.4857766759243327</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>0.2581313123459596</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>0.01615582042491521</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>-0.06074170816925881</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>0.3063398554605475</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>-0.791459539094821</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>-0.2955963124841951</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
+        <v>-1.036678305793306</v>
+      </c>
+      <c r="AP6" t="n">
         <v>1.13833173060979</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
         <v>-0.6326246009304716</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>-1.036678305793306</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>0.9059205532564427</v>
       </c>
     </row>
     <row r="7">
@@ -1355,19 +1355,19 @@
         <v>0.8108892361050978</v>
       </c>
       <c r="M7" t="n">
+        <v>0.3775421394730482</v>
+      </c>
+      <c r="N7" t="n">
         <v>-1.317582727332755</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>-0.6931374087045905</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>0.9956585699953648</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.011780358962302</v>
       </c>
       <c r="R7" t="n">
         <v>0.7838128452156778</v>
@@ -1409,43 +1409,43 @@
         <v>0.970012470756037</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1527156285036078</v>
+        <v>0.05194605201351622</v>
       </c>
       <c r="AF7" t="n">
+        <v>0.1357221225873337</v>
+      </c>
+      <c r="AG7" t="n">
         <v>0.1313981572610452</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>0.3522886339229308</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>0.3056693072531345</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>-2.894315229123543</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>4.127196311661636</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>1.745266656914749</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>0.513387720237176</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>-0.2620813960598474</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
+        <v>0.2499267242212103</v>
+      </c>
+      <c r="AP7" t="n">
         <v>2.272901499859277</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
         <v>-0.1722853740286154</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0.2499267242212103</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0.3287569278213574</v>
       </c>
     </row>
     <row r="8">
@@ -1488,19 +1488,19 @@
         <v>1.092857263707022</v>
       </c>
       <c r="M8" t="n">
+        <v>0.7743873474881342</v>
+      </c>
+      <c r="N8" t="n">
         <v>2.330288616107881</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>-0.707919036621363</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1.061682499864593</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.462569260516938</v>
       </c>
       <c r="R8" t="n">
         <v>1.09960441444613</v>
@@ -1542,43 +1542,43 @@
         <v>1.115191842013111</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3459410299902113</v>
+        <v>0.4561908622711387</v>
       </c>
       <c r="AF8" t="n">
+        <v>0.3161684918911117</v>
+      </c>
+      <c r="AG8" t="n">
         <v>-0.06783370573404125</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>0.2282132102677817</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>-0.3313398245030092</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>1.769870127549451</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>-0.1820105653125474</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>0.9052018011375955</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>-0.3860700993023558</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>-0.2873707194192116</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
+        <v>-0.5042900175114369</v>
+      </c>
+      <c r="AP8" t="n">
         <v>0.4548825161146076</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AQ8" t="n">
         <v>-0.5369105042479074</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>-0.5042900175114369</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.5777294721266882</v>
       </c>
     </row>
     <row r="9">
@@ -1621,19 +1621,19 @@
         <v>-0.1714621392484631</v>
       </c>
       <c r="M9" t="n">
+        <v>1.062329805025901</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.165911413428561</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>-1.109710559086365</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>3.393389678292235</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.553522095965743</v>
       </c>
       <c r="R9" t="n">
         <v>-1.456336133943886</v>
@@ -1675,43 +1675,43 @@
         <v>0.1951394410345459</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.001108005798734379</v>
+        <v>-0.386348761850527</v>
       </c>
       <c r="AF9" t="n">
+        <v>0.004591462590661581</v>
+      </c>
+      <c r="AG9" t="n">
         <v>0.7765299041022775</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>0.01771283634249393</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>-0.3408474234844442</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>0.7488123341054579</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>-0.3353964193282977</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>-0.2068649149534154</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
+        <v>-1.206746786772236</v>
+      </c>
+      <c r="AP9" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
         <v>-0.6918761845911067</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>-1.206746786772236</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>-0.8255703230488132</v>
       </c>
     </row>
     <row r="10">
@@ -1754,19 +1754,19 @@
         <v>-1.54669357512674</v>
       </c>
       <c r="M10" t="n">
+        <v>1.458661496985067</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.5853457788318979</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>-1.192487675420292</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>-0.6244573642861464</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.6603365415340607</v>
       </c>
       <c r="R10" t="n">
         <v>-0.5006874113381931</v>
@@ -1808,43 +1808,43 @@
         <v>-0.348845913916659</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.07515522259220198</v>
+        <v>-0.4500935360439426</v>
       </c>
       <c r="AF10" t="n">
+        <v>0.05711930622045246</v>
+      </c>
+      <c r="AG10" t="n">
         <v>0.1361417730466424</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>-0.4306700739699074</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>-0.9017957633891079</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>0.8437403813320692</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>0.918777160029641</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>-0.200301941763269</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
+        <v>-0.9849183333214573</v>
+      </c>
+      <c r="AP10" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AQ10" t="n">
         <v>-0.7830324671459297</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>-0.9849183333214573</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>-0.4860623080869984</v>
       </c>
     </row>
     <row r="11">
@@ -1887,19 +1887,19 @@
         <v>0.3831844391036508</v>
       </c>
       <c r="M11" t="n">
+        <v>1.912376274029418</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.7440922133813476</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>-0.1064411588443238</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>-0.6172478547027249</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.6603365415340607</v>
       </c>
       <c r="R11" t="n">
         <v>-1.384790240272872</v>
@@ -1941,43 +1941,43 @@
         <v>-0.6833706699758807</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.0175389210580148</v>
+        <v>-1.093084301821003</v>
       </c>
       <c r="AF11" t="n">
+        <v>-0.01033551455593365</v>
+      </c>
+      <c r="AG11" t="n">
         <v>1.17499363009245</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>-0.5889732007023392</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>-0.3503550224658792</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>1.404562019292252</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>2.191953369377852</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>-0.156198761925485</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AO11" t="n">
+        <v>-0.6299928078002114</v>
+      </c>
+      <c r="AP11" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AQ11" t="n">
         <v>-0.550583946631131</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>-0.6299928078002114</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>-0.7010840508961477</v>
       </c>
     </row>
     <row r="12">
@@ -2020,19 +2020,19 @@
         <v>0.1858154611561195</v>
       </c>
       <c r="M12" t="n">
+        <v>1.197524577566331</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.5465974478428306</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>1.749325036888677</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>-0.1444558051793985</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.4738482611611881</v>
       </c>
       <c r="R12" t="n">
         <v>-0.1961712153733537</v>
@@ -2074,43 +2074,43 @@
         <v>-1.343237149575051</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.5201952102399482</v>
+        <v>-2.371246210453883</v>
       </c>
       <c r="AF12" t="n">
+        <v>0.1162603675734184</v>
+      </c>
+      <c r="AG12" t="n">
         <v>-2.956695719162796</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>-0.290336491353049</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>-0.4739538092245339</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
         <v>1.128496887481414</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>0.8871061100458548</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
         <v>-0.0579291766916924</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AO12" t="n">
+        <v>-0.9849183333214573</v>
+      </c>
+      <c r="AP12" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AQ12" t="n">
         <v>-1.270718578814233</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>-0.9849183333214573</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>-2.964470817308247</v>
       </c>
     </row>
     <row r="13">
@@ -2153,19 +2153,19 @@
         <v>0.2360650498936367</v>
       </c>
       <c r="M13" t="n">
+        <v>0.05660394117852117</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.5281869188519519</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>-0.7095315778486474</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>-0.5196032687658582</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.07436986248620879</v>
       </c>
       <c r="R13" t="n">
         <v>-0.5092858974256392</v>
@@ -2207,43 +2207,43 @@
         <v>-0.9785395723810763</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.3356176588898081</v>
+        <v>-1.306490719772873</v>
       </c>
       <c r="AF13" t="n">
+        <v>-0.6531402772485542</v>
+      </c>
+      <c r="AG13" t="n">
         <v>1.260378714233202</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>-0.03106164054263372</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>-0.6736133878346685</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>-0.6585270560008485</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>-0.8357990090721218</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
         <v>-0.2850080490707589</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AO13" t="n">
+        <v>-1.066255432920076</v>
+      </c>
+      <c r="AP13" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AQ13" t="n">
         <v>-0.19051663053958</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>-1.066255432920076</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>-1.866728235598379</v>
       </c>
     </row>
     <row r="14">
@@ -2286,19 +2286,19 @@
         <v>0.3620994869936694</v>
       </c>
       <c r="M14" t="n">
+        <v>0.04210411509044903</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.4168615438244623</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>-1.343784356076656e-05</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>-1.264826242711568e-05</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.1137545382977107</v>
       </c>
       <c r="R14" t="n">
         <v>0.1272454264252117</v>
@@ -2340,43 +2340,43 @@
         <v>-1.00871239351583</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3475625018907982</v>
+        <v>0.5686350602272257</v>
       </c>
       <c r="AF14" t="n">
+        <v>0.3545251546855273</v>
+      </c>
+      <c r="AG14" t="n">
         <v>0.7433245936030966</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>-0.2509746328141739</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>-0.6070601949646236</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>-0.2528098329051061</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
         <v>0.3740351003085164</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AN14" t="n">
         <v>-0.2857080995443745</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AO14" t="n">
+        <v>-0.05323882882818692</v>
+      </c>
+      <c r="AP14" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AQ14" t="n">
         <v>0.3017272952564644</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>-0.05323882882818692</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0.5890464059587488</v>
       </c>
     </row>
     <row r="15">
@@ -2419,19 +2419,19 @@
         <v>0.235676188071936</v>
       </c>
       <c r="M15" t="n">
+        <v>-0.08987884793658987</v>
+      </c>
+      <c r="N15" t="n">
         <v>0.6169429126096316</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>-1.07423465208611</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>-0.2599344411384131</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-0.08740177320682874</v>
       </c>
       <c r="R15" t="n">
         <v>-0.1295735070922847</v>
@@ -2473,43 +2473,43 @@
         <v>-1.062061439580176</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1475809674850827</v>
+        <v>-0.1197887045479371</v>
       </c>
       <c r="AF15" t="n">
+        <v>0.210168059242505</v>
+      </c>
+      <c r="AG15" t="n">
         <v>2.057306166213548</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
         <v>-0.3442451236997689</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
         <v>-0.6355829919089285</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>0.02871331617713144</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
         <v>1.526861319718339</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AN15" t="n">
         <v>4.342238075219281</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
+        <v>0.8932292392284684</v>
+      </c>
+      <c r="AP15" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AQ15" t="n">
         <v>2.676348455809604</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0.8932292392284684</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0.2948061263251759</v>
       </c>
     </row>
     <row r="16">
@@ -2552,19 +2552,19 @@
         <v>0.7189018118383957</v>
       </c>
       <c r="M16" t="n">
+        <v>0.01616688593870056</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.6646682783959041</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>-1.111860614056077</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>-0.01481111530208182</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.01448491079319779</v>
       </c>
       <c r="R16" t="n">
         <v>-0.09453062039627763</v>
@@ -2606,43 +2606,43 @@
         <v>-0.9934073393170416</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.5229517124709459</v>
+        <v>1.11590968214554</v>
       </c>
       <c r="AF16" t="n">
+        <v>0.7256211434945534</v>
+      </c>
+      <c r="AG16" t="n">
         <v>-0.2291166424443494</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>-0.2227367777754158</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>-0.5500146010760137</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>-0.4967072072278004</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>-0.08202801945800728</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
         <v>-0.3230732935736081</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
+        <v>-0.01626741991972394</v>
+      </c>
+      <c r="AP16" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AQ16" t="n">
         <v>-0.1403806751344273</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>-0.01626741991972394</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0.8719697517602611</v>
       </c>
     </row>
     <row r="17">
@@ -2685,19 +2685,19 @@
         <v>0.8287336730342419</v>
       </c>
       <c r="M17" t="n">
+        <v>0.1265354913392825</v>
+      </c>
+      <c r="N17" t="n">
         <v>0.3019859290466655</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>-1.044133882510137</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0.2778696772599775</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.04556751779228332</v>
       </c>
       <c r="R17" t="n">
         <v>0.04596539756086195</v>
@@ -2739,43 +2739,43 @@
         <v>-0.9579870710284182</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.3813431664863582</v>
+        <v>0.8825087853317608</v>
       </c>
       <c r="AF17" t="n">
+        <v>0.4178230957502033</v>
+      </c>
+      <c r="AG17" t="n">
         <v>-0.5137335895801871</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
         <v>-0.5556011902019886</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AI17" t="n">
         <v>-0.5309994031131438</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
         <v>-0.8417182441380776</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>-0.8466291284531186</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
         <v>-1.141651399993749</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
         <v>-0.2467174793736961</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AN17" t="n">
         <v>-0.3088097651736899</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AO17" t="n">
+        <v>-0.8370326976876048</v>
+      </c>
+      <c r="AP17" t="n">
         <v>-1.675111673325467</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AQ17" t="n">
         <v>-0.7328965117407771</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>-0.8370326976876048</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1.098308428401471</v>
       </c>
     </row>
     <row r="18">
@@ -2818,19 +2818,19 @@
         <v>2.218914685613447</v>
       </c>
       <c r="M18" t="n">
+        <v>0.1141924326860749</v>
+      </c>
+      <c r="N18" t="n">
         <v>0.3170490891301115</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>-1.343784356076656e-05</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>-1.264826242711568e-05</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>0.6517139591518751</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.08241243413556665</v>
       </c>
       <c r="R18" t="n">
         <v>2.356605739078829</v>
@@ -2872,43 +2872,43 @@
         <v>-0.8700923312010932</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.5891618150782436</v>
+        <v>1.786912514842999</v>
       </c>
       <c r="AF18" t="n">
+        <v>0.2797013198747461</v>
+      </c>
+      <c r="AG18" t="n">
         <v>-0.765145226216844</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>-1.204216163516493</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>-0.2362638346886594</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>1.434925105396012e-16</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>2.145591952285533e-05</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
         <v>-0.8642183094237494</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AM18" t="n">
         <v>0.2220140603863418</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>-0.1963641578491811</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AO18" t="n">
+        <v>2.645674021489619</v>
+      </c>
+      <c r="AP18" t="n">
         <v>-1.574042410176061e-05</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AQ18" t="n">
         <v>-0.2588838424556972</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>2.645674021489619</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0.7248496119434749</v>
       </c>
     </row>
     <row r="19">
@@ -2951,19 +2951,19 @@
         <v>0.2113507207811173</v>
       </c>
       <c r="M19" t="n">
+        <v>-0.2430186724675385</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.3390605755820163</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>-1.343784356076656e-05</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>-1.264826242711568e-05</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>-1.693493397762031</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.1430169843445738</v>
       </c>
       <c r="R19" t="n">
         <v>-1.262302372423403</v>
@@ -3005,43 +3005,43 @@
         <v>1.122625725481094</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.2575708114082262</v>
+        <v>0.2807937506706228</v>
       </c>
       <c r="AF19" t="n">
+        <v>0.2967067368771963</v>
+      </c>
+      <c r="AG19" t="n">
         <v>-0.7793760735736358</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
         <v>-1.203360470939561</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
         <v>-0.6355829919089285</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>-0.8417182441380776</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>-0.8466291284531186</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
         <v>-1.19824896643337</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>-0.5634279792115595</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
         <v>-0.2174531783668516</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AO19" t="n">
+        <v>1.373857555038489</v>
+      </c>
+      <c r="AP19" t="n">
         <v>-1.675111673325467</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AQ19" t="n">
         <v>-0.4731011064595314</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>1.373857555038489</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0.4306093323099019</v>
       </c>
     </row>
     <row r="20">
@@ -3084,19 +3084,19 @@
         <v>-0.2896761330454082</v>
       </c>
       <c r="M20" t="n">
+        <v>-0.2326363114823895</v>
+      </c>
+      <c r="N20" t="n">
         <v>-0.3450199065914604</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>-1.343784356076656e-05</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>-1.264826242711568e-05</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>-1.693493397762031</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.2681645523437381</v>
       </c>
       <c r="R20" t="n">
         <v>0.0797103995644243</v>
@@ -3138,43 +3138,43 @@
         <v>1.256872915167605</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3116198747611222</v>
+        <v>0.4286737081938569</v>
       </c>
       <c r="AF20" t="n">
+        <v>0.3046425981450065</v>
+      </c>
+      <c r="AG20" t="n">
         <v>-0.8030941525016223</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AH20" t="n">
         <v>-1.199937700631833</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AI20" t="n">
         <v>-0.7116437837604084</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
         <v>-0.8417182441380776</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>-0.8466291284531186</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
         <v>-1.733024116908523</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>-2.051967328449517</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AN20" t="n">
         <v>-0.2977839702142439</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
+        <v>-0.4007700725677402</v>
+      </c>
+      <c r="AP20" t="n">
         <v>-1.675111673325467</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AQ20" t="n">
         <v>-0.700991812846589</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>-0.4007700725677402</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0.5437786706305068</v>
       </c>
     </row>
     <row r="21">
@@ -3217,19 +3217,19 @@
         <v>-1.970768995125649</v>
       </c>
       <c r="M21" t="n">
+        <v>-1.814387140238736</v>
+      </c>
+      <c r="N21" t="n">
         <v>-0.4831749505891286</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>-1.343784356076656e-05</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>-1.264826242711568e-05</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>-1.693493397762031</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-1.963989555354297</v>
       </c>
       <c r="R21" t="n">
         <v>-0.67768643627034</v>
@@ -3271,43 +3271,43 @@
         <v>-0.8644075967844006</v>
       </c>
       <c r="AE21" t="n">
-        <v>-4.199855443305112</v>
+        <v>-2.02609399366438</v>
       </c>
       <c r="AF21" t="n">
+        <v>-4.213696699406032</v>
+      </c>
+      <c r="AG21" t="n">
         <v>-0.6180931368633278</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AH21" t="n">
         <v>-1.187958004554784</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
         <v>-0.7116437837604084</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
         <v>-0.8417182441380776</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
         <v>-0.8466291284531186</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
         <v>-1.446830563173797</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>-1.925283128514372</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AN21" t="n">
         <v>-0.374877028621164</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AO21" t="n">
+        <v>-0.2528844369338877</v>
+      </c>
+      <c r="AP21" t="n">
         <v>-1.675111673325467</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AQ21" t="n">
         <v>2.557845288488334</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>-0.2528844369338877</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>-0.9726904628655996</v>
       </c>
     </row>
   </sheetData>
